--- a/data/financial_statements/sofp/SCHW.xlsx
+++ b/data/financial_statements/sofp/SCHW.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,875 +593,875 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
         <v>90604000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>118016000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>145571000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>116924000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>76623000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>70256000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>88605000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>90747000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>57044000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>66762000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>102767000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>49828000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>36416000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>38345000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>46482000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>41501000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>30317000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>24262000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>26968000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>29356000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>28186000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>28058000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>30956000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>33002000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>30508000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>31569000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>30717000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>31576000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>27609000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>26901000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>28395000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>32144000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>28478000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>25925000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>27721000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>31281000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>30882000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>33245000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>33828000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>114238000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>115694000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>121277000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>125201000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>118123000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>111140000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>100132000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>88253000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>47727000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>42292000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>38522000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>39979000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>39281000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>38530000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>37655000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>38260000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>39773000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>39945000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>38436000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>158629000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>35358000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>34720000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>32998000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>33286000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>32185000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>32500000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>31483000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>32229000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>31924000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>31549000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>30073000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>29537000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>28954000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>28061000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>27644000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>26879000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>25750000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>24952000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>24221000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4">
         <v>342006000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>337400000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>497000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>538000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>521000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>539000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>500000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>525000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>500000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>50534000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>427000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>460000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>564000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>449000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>858000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>525000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>485000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>533000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>470000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>611000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>657000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>516000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>572000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>583000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>456000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>517000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>482000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>488000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>545000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>204842000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>233710000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>266848000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>242125000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>194746000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>181396000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>188737000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>179000000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>104771000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>109054000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>141289000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>89807000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>76194000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>77413000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>84658000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>79761000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>70590000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>64732000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>65904000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>238519000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>63971000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>63238000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>64518000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>66737000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>63551000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>64594000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>62685000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>64338000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>60003000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>59061000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>59125000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>62197000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>58004000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>54569000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>55821000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>58677000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>57114000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>58685000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>58594000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>3687000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3670000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3499000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3442000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3164000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3136000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3054000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2883000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2346000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2314000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2291000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2128000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2017000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1909000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1813000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1769000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1683000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1599000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1540000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1471000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1392000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1335000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1305000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>1299000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>1266000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1242000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>1159000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1145000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1126000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>1091000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1058000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1039000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>991000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>883000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>820000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>790000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>738000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>711000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>681000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>332840000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>365394000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>377335000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>390054000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>376968000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>359622000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>342006000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>337400000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>303758000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>281216000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>221232000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>196128000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>196677000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>192974000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>192425000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>210587000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>196510000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>192314000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>177510000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>162438000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>153244000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>158559000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>152568000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>141847000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>129535000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>124570000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>115653000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>106888000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>101162000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>97687000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>89172000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>86208000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>85698000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>85203000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>81936000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>80084000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>74232000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>71729000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>20874000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>21026000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>21179000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>21331000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>21484000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>21638000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>21790000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>21943000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2995000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>3011000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1227000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1355000000</v>
-      </c>
-      <c r="N8">
-        <v>1227000000</v>
       </c>
       <c r="O8">
         <v>1227000000</v>
@@ -1362,1077 +1476,1080 @@
         <v>1227000000</v>
       </c>
       <c r="S8">
+        <v>1227000000</v>
+      </c>
+      <c r="T8">
         <v>1320000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1328000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1227000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1342000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1352000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>1362000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>1371000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>1381000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>1390000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>1399000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>1408000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>1419000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>1431000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>1443000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>1454000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>1460000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1471000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>1482000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>1493000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>1505000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>1521000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1533000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>15320000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>13757000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>12089000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>10318000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>11186000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8740000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7870000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7783000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>5485000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>4889000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4740000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>4587000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2872000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2798000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2692000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>3138000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>2092000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1917000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2038000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2057000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1571000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1432000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>1317000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1408000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1292000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1291000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>1185000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1161000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>966000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>882000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>856000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>780000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>781000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>780000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>740000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>746000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>770000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>758000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>787000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>372721000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>403847000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>414102000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>425145000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>412802000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>393136000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>374720000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>370009000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>314584000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>291430000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>229490000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>204198000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>202793000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>198908000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>198157000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>216721000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>201512000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>197150000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>182416000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>4755000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>166743000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>157363000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>162543000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>156646000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>145786000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>133458000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>128313000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>119367000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>110399000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>104566000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>101044000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>92445000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>89440000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>88832000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>88245000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>84965000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>83097000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>77222000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>74730000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>577563000000.0001</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>637557000000.0001</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>680950000000.0001</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>667270000000.0001</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>607548000000.0001</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>574532000000.0001</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>563457000000.0001</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>549009000000.0001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>419355000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>400484000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>370779000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>294005000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>278987000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>276321000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>282815000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>296482000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>272102000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>261882000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>248320000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>243274000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>230714000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>220601000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>227061000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>223383000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>209337000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>198052000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>190998000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>183705000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>170402000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>163627000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>160169000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>154642000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>147444000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>143401000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>144066000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>143642000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>140211000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>135907000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>133324000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>500000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1350000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4234000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4855000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3000000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3500000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2500000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>15000000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>5000000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>300000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>600000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>3001000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>5000000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>800000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>110012000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>114880000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>125307000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>125671000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>113052000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>105012000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>101339000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>104201000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>52006000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>50135000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>49251000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>39220000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>37358000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>35635000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>31303000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>32726000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>29373000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>33666000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>32210000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>32530000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>36907000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>34973000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>36910000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>38301000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>36458000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>36071000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>35130000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>35773000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>33747000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>33998000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>34027000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>36309000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>35230000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>33209000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>34226000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>36800000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>35739000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>39002000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>38040000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>13451000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>13699000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>15611000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>17791000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>19249000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>21224000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>16428000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>17094000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>7465000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>9442000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>9259000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>5516000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>3521000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3567000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3604000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>4785000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2697000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2408000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2468000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>2810000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>2249000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>2021000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>2162000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>2331000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1902000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1820000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1989000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>2151000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1549000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1401000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1586000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1816000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1496000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1433000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1532000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1586000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1328000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1210000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1453000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>1300000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2406000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4234000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>6082000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3000000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3500000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2500000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1984000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>395715000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>442003000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>465827000000.0001</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>443778000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>395275000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>368638000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>369898000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>358022000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>320717000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>301566000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>277477000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>220094000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>209327000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>208375000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>219454000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>231423000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>213408000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>199922000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>190184000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>169656000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>165263000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>162300000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>166889000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>163454000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>149630000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>137295000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>135689000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>129502000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>119017000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>112911000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>109503000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>102815000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>97345000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>95688000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>95591000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>92972000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>91187000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>84345000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>82424000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>519678000000.0001</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>571932000000.0001</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>610979000000.0001</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>592095000000.0001</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>530576000000.0001</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>498374000000.0001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>490165000000.0001</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>479317000000.0001</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>380188000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>361143000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>335987000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>264830000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>250206000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>247577000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>254361000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>268934000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>245478000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>235996000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>224862000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>219996000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>209419000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>199594000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>206561000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>204086000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>190991000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>180186000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>173608000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>167426000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>154313000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>148310000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>145116000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>140940000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>134071000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>130330000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>131349000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>131358000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>128254000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>124557000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>121917000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>20844000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>21112000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>21873000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>18914000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>19530000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>18708000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>17698000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>13632000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>7836000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>8526000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>8522000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>7430000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>7427000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>7424000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>6829000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>6878000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>5790000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>5789000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>4128000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>4753000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>3268000000</v>
-      </c>
-      <c r="W18">
-        <v>3518000000</v>
       </c>
       <c r="X18">
         <v>3518000000</v>
       </c>
       <c r="Y18">
-        <v>2876000000</v>
+        <v>3518000000</v>
       </c>
       <c r="Z18">
         <v>2876000000</v>
@@ -2441,158 +2558,158 @@
         <v>2876000000</v>
       </c>
       <c r="AB18">
-        <v>2877000000</v>
+        <v>2876000000</v>
       </c>
       <c r="AC18">
         <v>2877000000</v>
       </c>
       <c r="AD18">
+        <v>2877000000</v>
+      </c>
+      <c r="AE18">
         <v>2893000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>2894000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>2895000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1899000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1900000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1901000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1902000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1903000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1904000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1630000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1631000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>519178000000.0001</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>570582000000.0001</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>606745000000.0001</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>586308000000.0001</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>527576000000.0001</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>494874000000.0001</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>487665000000.0001</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>478284000000.0001</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>380188000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>361143000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>335987000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>20844000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>21112000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>21873000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>18914000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>19530000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>18708000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>17698000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>13632000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>7836000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>8526000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>8522000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>7430000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>7427000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>7424000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>6829000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>6878000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>5790000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>5789000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>4128000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>4753000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>3268000000</v>
-      </c>
-      <c r="W20">
-        <v>3518000000</v>
       </c>
       <c r="X20">
         <v>3518000000</v>
       </c>
       <c r="Y20">
-        <v>2876000000</v>
+        <v>3518000000</v>
       </c>
       <c r="Z20">
         <v>2876000000</v>
@@ -2601,304 +2718,304 @@
         <v>2876000000</v>
       </c>
       <c r="AB20">
-        <v>2877000000</v>
+        <v>2876000000</v>
       </c>
       <c r="AC20">
         <v>2877000000</v>
       </c>
       <c r="AD20">
+        <v>2877000000</v>
+      </c>
+      <c r="AE20">
         <v>2893000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>2894000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>2895000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>1899000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>1900000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>1901000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>1902000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>1903000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>1904000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>1630000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>1631000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>540522000000.0001</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>593044000000.0001</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>632852000000.0001</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>611009000000.0001</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>550106000000.0001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>517082000000.0001</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>507863000000.0001</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>492949000000.0001</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>388024000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>369669000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>344509000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>272260000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>257633000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>255001000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>261190000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>275812000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>251268000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>241785000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>228990000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>224749000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>212687000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>203112000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>210079000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>206962000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>193867000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>183062000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>176485000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>170303000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>157206000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>151204000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>148011000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>142839000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>135971000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>132231000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>133251000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>133261000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>130158000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>126187000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>123548000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>26975000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>26918000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>26826000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>26741000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>26755000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>26708000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>26629000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>26515000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>4797000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>4760000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>4714000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>4656000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>4640000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>4599000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>4548000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>4499000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>4484000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>4447000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>4397000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>4353000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>4365000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>4336000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>4300000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>4267000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>4254000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>4223000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>4189000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>4152000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>4160000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>4124000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>4085000000</v>
-      </c>
-      <c r="AG22">
-        <v>4050000000</v>
       </c>
       <c r="AH22">
         <v>4050000000</v>
       </c>
       <c r="AI22">
+        <v>4050000000</v>
+      </c>
+      <c r="AJ22">
         <v>4012000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>3982000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>3951000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>3964000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>3932000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>3911000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>10297000000</v>
-      </c>
-      <c r="C23">
-        <v>10694000000</v>
       </c>
       <c r="D23">
         <v>10694000000</v>
       </c>
       <c r="E23">
-        <v>9954000000</v>
+        <v>10694000000</v>
       </c>
       <c r="F23">
         <v>9954000000</v>
@@ -2907,19 +3024,19 @@
         <v>9954000000</v>
       </c>
       <c r="H23">
+        <v>9954000000</v>
+      </c>
+      <c r="I23">
         <v>10539000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>7733000000</v>
-      </c>
-      <c r="J23">
-        <v>5263000000</v>
       </c>
       <c r="K23">
         <v>5263000000</v>
       </c>
       <c r="L23">
-        <v>2793000000</v>
+        <v>5263000000</v>
       </c>
       <c r="M23">
         <v>2793000000</v>
@@ -2949,7 +3066,7 @@
         <v>2793000000</v>
       </c>
       <c r="V23">
-        <v>2783000000</v>
+        <v>2793000000</v>
       </c>
       <c r="W23">
         <v>2783000000</v>
@@ -2961,57 +3078,57 @@
         <v>2783000000</v>
       </c>
       <c r="Z23">
+        <v>2783000000</v>
+      </c>
+      <c r="AA23">
         <v>2192000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>2189000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>2186000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>1459000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>1457000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>874000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>873000000</v>
-      </c>
-      <c r="AG23">
-        <v>872000000</v>
       </c>
       <c r="AH23">
         <v>872000000</v>
       </c>
       <c r="AI23">
+        <v>872000000</v>
+      </c>
+      <c r="AJ23">
         <v>871000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>870000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>869000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>868000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>867000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>866000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>21000000</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C24">
         <v>21000000</v>
@@ -3035,7 +3152,7 @@
         <v>21000000</v>
       </c>
       <c r="J24">
-        <v>15000000</v>
+        <v>21000000</v>
       </c>
       <c r="K24">
         <v>15000000</v>
@@ -3127,751 +3244,751 @@
       <c r="AN24">
         <v>15000000</v>
       </c>
+      <c r="AO24">
+        <v>15000000</v>
+      </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>29651000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>28174000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>26895000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>25992000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>24880000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>23809000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>23029000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>21975000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>21261000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>20876000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>20487000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>19960000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>19374000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>18680000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>18017000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>17329000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>16615000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>15903000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>15222000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>14408000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>13963000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>13495000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>13069000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>12649000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>12261000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>11882000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>11567000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>11253000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>10952000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>10664000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>10412000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>10198000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>9949000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>9715000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>9492000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>9253000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>9034000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>8830000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>8674000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>6751000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>5272000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>5293000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>5338000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>5421000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5450000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>5502000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>5578000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>5691000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>5710000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>5734000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>5767000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>5612000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>4866000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>3677000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>3714000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2769000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2783000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2837000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>2892000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>2993000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>3028000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>3053000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>3130000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>3283000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>3302000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>3324000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>3343000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>3407000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>3428000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>3458000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>3497000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>3576000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>3629000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>3652000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>3716000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>3874000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>3927000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>3990000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>26744000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>33819000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>37404000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>46307000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>47488000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>47496000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>45055000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>48327000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>26068000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>25552000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>23477000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>18952000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>18561000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>18527000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>18832000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>17877000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>18041000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>17304000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>16537000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>15732000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>15244000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>14706000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>14199000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>13638000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>13278000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>12801000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>12327000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>11943000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>11739000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>11549000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>11285000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>10931000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>10601000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>10299000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>9945000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>9512000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>9185000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>8853000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>8910000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>37041000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>44513000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>48098000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>56261000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>57442000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>57450000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>55594000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>56060000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>31331000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>30815000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>26270000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>21745000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>21354000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>21320000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>21625000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>20670000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>20834000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>20097000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>19330000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>18525000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>18027000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>17489000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>16982000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>16421000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>15470000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>14990000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>14513000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>13402000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>13196000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>12423000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>12158000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>11803000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>11473000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>11170000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>10815000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>10381000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>10053000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>9720000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>9776000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>577563000000.0001</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>637557000000.0001</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>680950000000.0001</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>667270000000.0001</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>607548000000.0001</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>574532000000.0001</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>563457000000.0001</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>549009000000.0001</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>419355000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>400484000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>370779000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>294005000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>278987000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>276321000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>282815000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>296482000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>272102000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>261882000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>248320000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>243274000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>230714000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>220601000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>227061000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>223383000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>209337000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>198052000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>190998000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>183705000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>170402000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>163627000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>160169000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>154642000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>147444000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>143401000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>144066000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>143642000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>140211000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>135907000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>133324000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>1876096000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2074189000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1895410000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1893230000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1888991000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1887800000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1885249000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1880612000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1289420000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1288485000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1287321000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1466725000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1288932000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1308504000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1334401000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1332427000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1351737000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1350975000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1348217000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>1345333000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1340030000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1338204000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1336857000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1332750000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1324027000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1322873000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1321461000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1320338000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1316387000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1315061000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1313146000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1310722000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1305551000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1302282000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1300895000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1296886000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1287720000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1283998000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1279839000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31">
-        <v>1786000</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="K31">
         <v>1786000</v>
       </c>
       <c r="L31">
-        <v>1761000</v>
+        <v>1786000</v>
       </c>
       <c r="M31">
         <v>1761000</v>
@@ -3901,7 +4018,7 @@
         <v>1761000</v>
       </c>
       <c r="V31">
-        <v>2241000</v>
+        <v>1761000</v>
       </c>
       <c r="W31">
         <v>2241000</v>
@@ -3913,7 +4030,7 @@
         <v>2241000</v>
       </c>
       <c r="Z31">
-        <v>2235000</v>
+        <v>2241000</v>
       </c>
       <c r="AA31">
         <v>2235000</v>
@@ -3922,13 +4039,13 @@
         <v>2235000</v>
       </c>
       <c r="AC31">
-        <v>1485000</v>
+        <v>2235000</v>
       </c>
       <c r="AD31">
         <v>1485000</v>
       </c>
       <c r="AE31">
-        <v>885000</v>
+        <v>1485000</v>
       </c>
       <c r="AF31">
         <v>885000</v>
@@ -3957,326 +4074,326 @@
       <c r="AN31">
         <v>885000</v>
       </c>
+      <c r="AO31">
+        <v>885000</v>
+      </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>16167000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>23487000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>26919000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>34930000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>35958000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>35812000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>33804000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>34117000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>28336000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>27804000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>25043000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>20390000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>20127000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>20093000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>20398000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>19443000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>19607000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>18777000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>18002000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>17298000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>16685000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>16137000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>15620000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>15050000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>14089000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>13600000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>13114000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>11994000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>11777000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>10992000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>10715000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>10349000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>10013000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>9699000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>9333000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>8888000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>8548000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>8199000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>8243000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>-68460000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-94498000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-119464000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-91928000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-54093000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-48048000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-68407000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-75131000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-49208000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>-58236000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-94245000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-42398000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-28989000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-30921000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-39653000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-34623000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-24527000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>-18473000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-22840000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-24603000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-24918000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-24540000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-27438000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-30126000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-27632000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-28693000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-27840000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-28699000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-24716000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-24007000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-25500000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-30245000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>-26578000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>-24024000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-25819000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>-29378000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>-28978000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-31615000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-32197000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>22144000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>23518000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>26107000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>24996000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>22530000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>22208000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>20198000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>15616000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>7836000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>8526000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>8522000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>7430000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>7427000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>7424000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>6829000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>6878000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>5790000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>5789000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>4128000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>4753000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>3268000000</v>
-      </c>
-      <c r="W34">
-        <v>3518000000</v>
       </c>
       <c r="X34">
         <v>3518000000</v>
       </c>
       <c r="Y34">
-        <v>2876000000</v>
+        <v>3518000000</v>
       </c>
       <c r="Z34">
         <v>2876000000</v>
@@ -4285,42 +4402,45 @@
         <v>2876000000</v>
       </c>
       <c r="AB34">
-        <v>2877000000</v>
+        <v>2876000000</v>
       </c>
       <c r="AC34">
         <v>2877000000</v>
       </c>
       <c r="AD34">
+        <v>2877000000</v>
+      </c>
+      <c r="AE34">
         <v>2893000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>2894000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>2895000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>1899000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>1900000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>1901000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>1902000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>1903000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>1904000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>1630000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>1631000000</v>
       </c>
     </row>
